--- a/Schedule .xlsx
+++ b/Schedule .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Pdfs\CAIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Redirected\Documents\GitHub\CAIA-Level1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6AFEE-6E89-4AB1-8C09-D32E587EF6D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111FCBBD-2389-46E0-9C0D-933AD2D04C7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="0" windowWidth="13215" windowHeight="6615" xr2:uid="{F2AF8BDE-5F1D-4AB8-96F5-04BCBBCBDD11}"/>
+    <workbookView xWindow="3090" yWindow="0" windowWidth="13215" windowHeight="6615" xr2:uid="{F2AF8BDE-5F1D-4AB8-96F5-04BCBBCBDD11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,16 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -103,6 +103,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,93 +448,93 @@
       <c r="B1" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>43255</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>C4+6</f>
         <v>43261</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f>D4+1</f>
         <v>43262</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D22" si="0">C5+6</f>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D17" si="0">C5+6</f>
         <v>43268</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:C22" si="1">D5+1</f>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C17" si="1">D5+1</f>
         <v>43269</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>43275</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <f t="shared" si="1"/>
         <v>43276</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>43282</v>
       </c>
@@ -537,14 +549,14 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <f t="shared" si="1"/>
         <v>43283</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>43289</v>
       </c>
@@ -559,14 +571,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f t="shared" si="1"/>
         <v>43290</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>43296</v>
       </c>
@@ -581,14 +593,14 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f t="shared" si="1"/>
         <v>43297</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>43303</v>
       </c>
@@ -603,14 +615,14 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <f t="shared" si="1"/>
         <v>43304</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>43310</v>
       </c>
@@ -621,14 +633,14 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <f t="shared" si="1"/>
         <v>43311</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>43317</v>
       </c>
@@ -641,14 +653,14 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>43318</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>43324</v>
       </c>
@@ -661,14 +673,14 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f t="shared" si="1"/>
         <v>43325</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>43331</v>
       </c>
@@ -683,14 +695,14 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f t="shared" si="1"/>
         <v>43332</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>43338</v>
       </c>
@@ -703,14 +715,14 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f t="shared" si="1"/>
         <v>43339</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>43345</v>
       </c>
@@ -723,22 +735,22 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <f t="shared" si="1"/>
         <v>43346</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>43352</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
